--- a/GRAB.xlsx
+++ b/GRAB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed04691dbd909eac/Desktop/Finance Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Model\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="496" documentId="11_F25DC773A252ABDACC10480DD19F58425BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B3EDBF4-FA26-4646-BDAB-A704C28C69FA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA7F0BB-A234-44F9-8A18-2519BA5C364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>Price</t>
   </si>
@@ -61,12 +61,6 @@
     <t>In Mil</t>
   </si>
   <si>
-    <t>As of Feb 2025</t>
-  </si>
-  <si>
-    <t>As of Q3 2024</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -179,6 +173,15 @@
   </si>
   <si>
     <t>Fair value with assumption 20% yoy growth till 2030</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
+  </si>
+  <si>
+    <t>Q2 25</t>
+  </si>
+  <si>
+    <t>As of Q1 2025</t>
   </si>
 </sst>
 </file>
@@ -252,16 +255,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -276,8 +279,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6524625" y="0"/>
-          <a:ext cx="19050" cy="6438900"/>
+          <a:off x="7762875" y="0"/>
+          <a:ext cx="19050" cy="6505575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -307,14 +310,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -331,7 +334,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6619875" y="0"/>
+          <a:off x="7829550" y="0"/>
           <a:ext cx="9525" cy="7362825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -623,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="I1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.79</v>
+        <v>4.8600000000000003</v>
       </c>
     </row>
     <row r="3" spans="9:12" x14ac:dyDescent="0.25">
@@ -653,7 +656,7 @@
         <v>3813</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="9:12" x14ac:dyDescent="0.25">
@@ -662,7 +665,7 @@
       </c>
       <c r="K4" s="1">
         <f>K2*K3</f>
-        <v>18264.27</v>
+        <v>18531.18</v>
       </c>
     </row>
     <row r="5" spans="9:12" x14ac:dyDescent="0.25">
@@ -670,11 +673,11 @@
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <f>2769+2885</f>
-        <v>5654</v>
+        <f>3053+2828</f>
+        <v>5881</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="9:12" x14ac:dyDescent="0.25">
@@ -682,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="9:12" x14ac:dyDescent="0.25">
@@ -694,7 +697,7 @@
       </c>
       <c r="K7" s="1">
         <f>K4-K5+K6</f>
-        <v>12710.27</v>
+        <v>12903.18</v>
       </c>
     </row>
   </sheetData>
@@ -704,10 +707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709D2217-E332-49C9-A213-B5210B8C6629}">
-  <dimension ref="A2:L30"/>
+  <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,41 +718,44 @@
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>21</v>
       </c>
       <c r="C3">
         <v>268</v>
@@ -778,10 +784,16 @@
       <c r="K3">
         <v>404</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>415</v>
+      </c>
+      <c r="M3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>189</v>
@@ -810,10 +822,16 @@
       <c r="K4">
         <v>296</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>282</v>
+      </c>
+      <c r="M4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -842,10 +860,16 @@
       <c r="K5">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>75</v>
+      </c>
+      <c r="M5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -874,10 +898,16 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <f>SUM(C3:C6)</f>
@@ -917,18 +947,22 @@
       </c>
       <c r="L7">
         <f>SUM(L3:L6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+      <c r="M7">
+        <f>SUM(M3:M6)</f>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:J9" si="1">C3-C15</f>
+        <f t="shared" ref="C9:E9" si="1">C3-C15</f>
         <v>221</v>
       </c>
       <c r="D9">
@@ -965,15 +999,19 @@
       </c>
       <c r="L9">
         <f>L3-L15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="M9">
+        <f>M3-M15</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:L10" si="3">C4-C16</f>
+        <f t="shared" ref="C10:E10" si="3">C4-C16</f>
         <v>37</v>
       </c>
       <c r="D10">
@@ -989,7 +1027,7 @@
         <v>104</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:L10" si="4">G4-G16</f>
+        <f t="shared" ref="G10:M10" si="4">G4-G16</f>
         <v>55</v>
       </c>
       <c r="H10">
@@ -1010,15 +1048,19 @@
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:L11" si="5">C5-C17</f>
+        <f t="shared" ref="C11:E11" si="5">C5-C17</f>
         <v>121</v>
       </c>
       <c r="D11">
@@ -1034,7 +1076,7 @@
         <v>84</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:L11" si="6">G5-G17</f>
+        <f t="shared" ref="G11:M11" si="6">G5-G17</f>
         <v>137</v>
       </c>
       <c r="H11">
@@ -1055,17 +1097,21 @@
       </c>
       <c r="L11">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:D13" si="7">SUM(C9:C12)</f>
@@ -1080,7 +1126,7 @@
         <v>485</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:L13" si="8">SUM(F9:F12)</f>
+        <f t="shared" ref="F13:M13" si="8">SUM(F9:F12)</f>
         <v>489</v>
       </c>
       <c r="G13">
@@ -1105,15 +1151,19 @@
       </c>
       <c r="L13">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>47</v>
@@ -1142,10 +1192,16 @@
       <c r="K15">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>63</v>
+      </c>
+      <c r="M15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>152</v>
@@ -1174,10 +1230,16 @@
       <c r="K16">
         <v>161</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>159</v>
+      </c>
+      <c r="M16">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>-93</v>
@@ -1206,10 +1268,16 @@
       <c r="K17">
         <v>-19</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>-30</v>
+      </c>
+      <c r="M17">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1238,16 +1306,22 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" ref="C21:L21" si="9">C15/C3</f>
+        <f t="shared" ref="C21:D21" si="9">C15/C3</f>
         <v>0.17537313432835822</v>
       </c>
       <c r="D21" s="3">
@@ -1259,7 +1333,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" ref="F21:L21" si="10">F15/F3</f>
+        <f t="shared" ref="F21:M21" si="10">F15/F3</f>
         <v>0.10149253731343283</v>
       </c>
       <c r="G21" s="3">
@@ -1282,17 +1356,21 @@
         <f t="shared" si="10"/>
         <v>0.15099009900990099</v>
       </c>
-      <c r="L21" s="3" t="e">
+      <c r="L21" s="3">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.15180722891566265</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="10"/>
+        <v>0.15294117647058825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:L22" si="11">C16/C4</f>
+        <f t="shared" ref="C22:D22" si="11">C16/C4</f>
         <v>0.80423280423280419</v>
       </c>
       <c r="D22" s="3">
@@ -1304,7 +1382,7 @@
         <v>0.54807692307692313</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" ref="F22:L22" si="12">F16/F4</f>
+        <f t="shared" ref="F22:M22" si="12">F16/F4</f>
         <v>0.54978354978354982</v>
       </c>
       <c r="G22" s="3">
@@ -1327,17 +1405,21 @@
         <f t="shared" si="12"/>
         <v>0.54391891891891897</v>
       </c>
-      <c r="L22" s="3" t="e">
+      <c r="L22" s="3">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.56382978723404253</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="12"/>
+        <v>0.57718120805369133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ref="C23:L23" si="13">C17/C5</f>
+        <f t="shared" ref="C23:D23" si="13">C17/C5</f>
         <v>-3.3214285714285716</v>
       </c>
       <c r="D23" s="3">
@@ -1349,7 +1431,7 @@
         <v>-1.0769230769230769</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" ref="F23:L23" si="14">F17/F5</f>
+        <f t="shared" ref="F23:M23" si="14">F17/F5</f>
         <v>-0.75</v>
       </c>
       <c r="G23" s="3">
@@ -1372,17 +1454,21 @@
         <f t="shared" si="14"/>
         <v>-0.27536231884057971</v>
       </c>
-      <c r="L23" s="3" t="e">
+      <c r="L23" s="3">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="14"/>
+        <v>-0.24390243902439024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ref="C24:L24" si="15">C18/C6</f>
+        <f t="shared" ref="C24:D24" si="15">C18/C6</f>
         <v>0</v>
       </c>
       <c r="D24" s="3">
@@ -1394,7 +1480,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="3" t="e">
-        <f t="shared" ref="F24:L24" si="16">F18/F6</f>
+        <f t="shared" ref="F24:M24" si="16">F18/F6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="3">
@@ -1417,12 +1503,16 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="L24" s="3" t="e">
+      <c r="L24" s="3">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1434,19 +1524,19 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="3">
         <f>D3/C3-1</f>
         <v>9.7014925373134275E-2</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" ref="E27:L27" si="17">E3/D3-1</f>
+        <f t="shared" ref="E27:M27" si="17">E3/D3-1</f>
         <v>8.8435374149659962E-2</v>
       </c>
       <c r="F27" s="3">
@@ -1475,15 +1565,19 @@
       </c>
       <c r="L27" s="3">
         <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.7227722772277252E-2</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="17"/>
+        <v>2.4096385542168752E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28:L28" si="18">D4/C4-1</f>
+        <f t="shared" ref="D28:M28" si="18">D4/C4-1</f>
         <v>2.6455026455026509E-2</v>
       </c>
       <c r="E28" s="3">
@@ -1516,15 +1610,19 @@
       </c>
       <c r="L28" s="3">
         <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-4.7297297297297258E-2</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="18"/>
+        <v>5.6737588652482351E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" ref="D29:L29" si="19">D5/C5-1</f>
+        <f t="shared" ref="D29:M29" si="19">D5/C5-1</f>
         <v>0.28571428571428581</v>
       </c>
       <c r="E29" s="3">
@@ -1557,15 +1655,19 @@
       </c>
       <c r="L29" s="3">
         <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.6956521739130377E-2</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="19"/>
+        <v>9.3333333333333268E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" ref="D30:L30" si="20">D6/C6-1</f>
+        <f t="shared" ref="D30:M30" si="20">D6/C6-1</f>
         <v>-0.94117647058823528</v>
       </c>
       <c r="E30" s="3">
@@ -1598,7 +1700,11 @@
       </c>
       <c r="L30" s="3">
         <f t="shared" si="20"/>
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1609,92 +1715,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73038030-1C22-446D-A56B-4E91F554EA64}">
-  <dimension ref="B2:Z27"/>
+  <dimension ref="B2:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2">
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2">
         <v>2023</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2024</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2025</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2026</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2027</v>
       </c>
-      <c r="U2">
-        <f>T2+1</f>
+      <c r="V2">
+        <f t="shared" ref="V2:AA2" si="0">U2+1</f>
         <v>2028</v>
       </c>
-      <c r="V2">
-        <f>U2+1</f>
+      <c r="W2">
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="W2">
-        <f>V2+1</f>
+      <c r="X2">
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="X2">
-        <f>W2+1</f>
+      <c r="Y2">
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="Y2">
-        <f>X2+1</f>
+      <c r="Z2">
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="Z2">
-        <f>Y2+1</f>
+      <c r="AA2">
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>502</v>
@@ -1723,54 +1832,60 @@
       <c r="K3">
         <v>770</v>
       </c>
-      <c r="P3">
+      <c r="L3">
+        <v>773</v>
+      </c>
+      <c r="M3">
+        <v>797</v>
+      </c>
+      <c r="Q3">
         <f>SUM(D3:G3)</f>
         <v>2360</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <f>SUM(H3:K3)</f>
         <v>2803</v>
       </c>
-      <c r="R3">
-        <f>Q3*1.2</f>
-        <v>3363.6</v>
-      </c>
       <c r="S3">
         <f>R3*1.2</f>
-        <v>4036.3199999999997</v>
+        <v>3363.6</v>
       </c>
       <c r="T3">
         <f>S3*1.2</f>
-        <v>4843.5839999999998</v>
+        <v>4036.3199999999997</v>
       </c>
       <c r="U3">
         <f>T3*1.2</f>
-        <v>5812.3008</v>
+        <v>4843.5839999999998</v>
       </c>
       <c r="V3">
         <f>U3*1.2</f>
+        <v>5812.3008</v>
+      </c>
+      <c r="W3">
+        <f>V3*1.2</f>
         <v>6974.7609599999996</v>
       </c>
-      <c r="W3">
-        <f>V3*1.15</f>
+      <c r="X3">
+        <f>W3*1.15</f>
         <v>8020.9751039999992</v>
-      </c>
-      <c r="X3">
-        <f>W3*1.1</f>
-        <v>8823.0726144</v>
       </c>
       <c r="Y3">
         <f>X3*1.1</f>
-        <v>9705.3798758400008</v>
+        <v>8823.0726144</v>
       </c>
       <c r="Z3">
         <f>Y3*1.1</f>
+        <v>9705.3798758400008</v>
+      </c>
+      <c r="AA3">
+        <f>Z3*1.1</f>
         <v>10675.917863424002</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -1799,54 +1914,60 @@
       <c r="K4">
         <v>6</v>
       </c>
-      <c r="P4">
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
         <f>SUM(D4:G4)</f>
         <v>17</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f>SUM(H4:K4)</f>
         <v>18</v>
       </c>
-      <c r="R4">
-        <f>Q4+1</f>
+      <c r="S4">
+        <f t="shared" ref="S4:AA4" si="1">R4+1</f>
         <v>19</v>
       </c>
-      <c r="S4">
-        <f>R4+1</f>
+      <c r="T4">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="T4">
-        <f>S4+1</f>
+      <c r="U4">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="U4">
-        <f>T4+1</f>
+      <c r="V4">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="V4">
-        <f>U4+1</f>
+      <c r="W4">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="W4">
-        <f>V4+1</f>
+      <c r="X4">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="X4">
-        <f>W4+1</f>
+      <c r="Y4">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Y4">
-        <f>X4+1</f>
+      <c r="Z4">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="Z4">
-        <f>Y4+1</f>
+      <c r="AA4">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>388</v>
@@ -1875,61 +1996,67 @@
       <c r="K5">
         <v>420</v>
       </c>
-      <c r="P5">
+      <c r="L5">
+        <v>449</v>
+      </c>
+      <c r="M5">
+        <v>465</v>
+      </c>
+      <c r="Q5">
         <f>SUM(D5:G5)</f>
         <v>1500</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f>SUM(E5:H5)</f>
         <v>1520</v>
       </c>
-      <c r="R5">
-        <f>Q5*1.03</f>
+      <c r="S5">
+        <f t="shared" ref="S5:AA5" si="2">R5*1.03</f>
         <v>1565.6000000000001</v>
       </c>
-      <c r="S5">
-        <f>R5*1.03</f>
+      <c r="T5">
+        <f t="shared" si="2"/>
         <v>1612.5680000000002</v>
       </c>
-      <c r="T5">
-        <f>S5*1.03</f>
+      <c r="U5">
+        <f t="shared" si="2"/>
         <v>1660.9450400000003</v>
       </c>
-      <c r="U5">
-        <f>T5*1.03</f>
+      <c r="V5">
+        <f t="shared" si="2"/>
         <v>1710.7733912000003</v>
       </c>
-      <c r="V5">
-        <f>U5*1.03</f>
+      <c r="W5">
+        <f t="shared" si="2"/>
         <v>1762.0965929360004</v>
       </c>
-      <c r="W5">
-        <f>V5*1.03</f>
+      <c r="X5">
+        <f t="shared" si="2"/>
         <v>1814.9594907240805</v>
       </c>
-      <c r="X5">
-        <f>W5*1.03</f>
+      <c r="Y5">
+        <f t="shared" si="2"/>
         <v>1869.4082754458029</v>
       </c>
-      <c r="Y5">
-        <f>X5*1.03</f>
+      <c r="Z5">
+        <f t="shared" si="2"/>
         <v>1925.4905237091771</v>
       </c>
-      <c r="Z5">
-        <f>Y5*1.03</f>
+      <c r="AA5">
+        <f t="shared" si="2"/>
         <v>1983.2552394204524</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:D6" si="0">C3+C4-C5</f>
+        <f t="shared" ref="C6:D6" si="3">C3+C4-C5</f>
         <v>123</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="E6">
@@ -1941,77 +2068,81 @@
         <v>246</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:L6" si="1">G3+G4-G5</f>
+        <f t="shared" ref="G6:M6" si="4">G3+G4-G5</f>
         <v>281</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>313</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>356</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>332</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="Q6">
         <f>SUM(D6:G6)</f>
         <v>877</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f>SUM(E6:H6)</f>
         <v>984</v>
       </c>
-      <c r="R6">
-        <f t="shared" ref="R6:Z6" si="2">R3+R4-R5</f>
+      <c r="S6">
+        <f t="shared" ref="S6:AA6" si="5">S3+S4-S5</f>
         <v>1816.9999999999998</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="2"/>
+      <c r="T6">
+        <f t="shared" si="5"/>
         <v>2443.7519999999995</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="2"/>
+      <c r="U6">
+        <f t="shared" si="5"/>
         <v>3203.6389599999993</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="2"/>
+      <c r="V6">
+        <f t="shared" si="5"/>
         <v>4123.5274087999996</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="2"/>
+      <c r="W6">
+        <f t="shared" si="5"/>
         <v>5235.6643670639987</v>
       </c>
-      <c r="W6">
-        <f t="shared" si="2"/>
+      <c r="X6">
+        <f t="shared" si="5"/>
         <v>6230.0156132759184</v>
       </c>
-      <c r="X6">
-        <f t="shared" si="2"/>
+      <c r="Y6">
+        <f t="shared" si="5"/>
         <v>6978.6643389541969</v>
       </c>
-      <c r="Y6">
-        <f t="shared" si="2"/>
+      <c r="Z6">
+        <f t="shared" si="5"/>
         <v>7805.8893521308237</v>
       </c>
-      <c r="Z6">
-        <f t="shared" si="2"/>
+      <c r="AA6">
+        <f t="shared" si="5"/>
         <v>8719.6626240035494</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>70</v>
@@ -2040,54 +2171,60 @@
       <c r="K8">
         <v>85</v>
       </c>
-      <c r="P8">
-        <f t="shared" ref="P8:P13" si="3">SUM(D8:G8)</f>
+      <c r="L8">
+        <v>82</v>
+      </c>
+      <c r="M8">
+        <v>85</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q13" si="6">SUM(D8:G8)</f>
         <v>293</v>
       </c>
-      <c r="Q8">
-        <f>SUM(H8:K8)</f>
+      <c r="R8">
+        <f t="shared" ref="R8:R13" si="7">SUM(H8:K8)</f>
         <v>317</v>
       </c>
-      <c r="R8">
-        <f>Q8*1.04</f>
+      <c r="S8">
+        <f t="shared" ref="S8:AA8" si="8">R8*1.04</f>
         <v>329.68</v>
       </c>
-      <c r="S8">
-        <f>R8*1.04</f>
+      <c r="T8">
+        <f t="shared" si="8"/>
         <v>342.86720000000003</v>
       </c>
-      <c r="T8">
-        <f>S8*1.04</f>
+      <c r="U8">
+        <f t="shared" si="8"/>
         <v>356.58188800000005</v>
       </c>
-      <c r="U8">
-        <f>T8*1.04</f>
+      <c r="V8">
+        <f t="shared" si="8"/>
         <v>370.84516352000009</v>
       </c>
-      <c r="V8">
-        <f>U8*1.04</f>
+      <c r="W8">
+        <f t="shared" si="8"/>
         <v>385.67897006080011</v>
       </c>
-      <c r="W8">
-        <f>V8*1.04</f>
+      <c r="X8">
+        <f t="shared" si="8"/>
         <v>401.10612886323213</v>
       </c>
-      <c r="X8">
-        <f>W8*1.04</f>
+      <c r="Y8">
+        <f t="shared" si="8"/>
         <v>417.15037401776141</v>
       </c>
-      <c r="Y8">
-        <f>X8*1.04</f>
+      <c r="Z8">
+        <f t="shared" si="8"/>
         <v>433.83638897847186</v>
       </c>
-      <c r="Z8">
-        <f>Y8*1.04</f>
+      <c r="AA8">
+        <f t="shared" si="8"/>
         <v>451.18984453761072</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>166</v>
@@ -2116,54 +2253,60 @@
       <c r="K9">
         <v>121</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="3"/>
+      <c r="L9">
+        <v>113</v>
+      </c>
+      <c r="M9">
+        <v>115</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
         <v>551</v>
       </c>
-      <c r="Q9">
-        <f>SUM(H9:K9)</f>
+      <c r="R9">
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
-      <c r="R9">
-        <f>Q9*1.01</f>
+      <c r="S9">
+        <f t="shared" ref="S9:AA9" si="9">R9*1.01</f>
         <v>494.9</v>
       </c>
-      <c r="S9">
-        <f>R9*1.01</f>
+      <c r="T9">
+        <f t="shared" si="9"/>
         <v>499.84899999999999</v>
       </c>
-      <c r="T9">
-        <f>S9*1.01</f>
+      <c r="U9">
+        <f t="shared" si="9"/>
         <v>504.84748999999999</v>
       </c>
-      <c r="U9">
-        <f>T9*1.01</f>
+      <c r="V9">
+        <f t="shared" si="9"/>
         <v>509.89596490000002</v>
       </c>
-      <c r="V9">
-        <f>U9*1.01</f>
+      <c r="W9">
+        <f t="shared" si="9"/>
         <v>514.99492454900007</v>
       </c>
-      <c r="W9">
-        <f>V9*1.01</f>
+      <c r="X9">
+        <f t="shared" si="9"/>
         <v>520.14487379449008</v>
       </c>
-      <c r="X9">
-        <f>W9*1.01</f>
+      <c r="Y9">
+        <f t="shared" si="9"/>
         <v>525.34632253243501</v>
       </c>
-      <c r="Y9">
-        <f>X9*1.01</f>
+      <c r="Z9">
+        <f t="shared" si="9"/>
         <v>530.59978575775938</v>
       </c>
-      <c r="Z9">
-        <f>Y9*1.01</f>
+      <c r="AA9">
+        <f t="shared" si="9"/>
         <v>535.90578361533699</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>110</v>
@@ -2192,16 +2335,19 @@
       <c r="K10">
         <v>104</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
+      <c r="L10">
+        <v>121</v>
+      </c>
+      <c r="M10">
+        <v>112</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
         <v>421</v>
       </c>
-      <c r="Q10">
-        <f>SUM(H10:K10)</f>
+      <c r="R10">
+        <f t="shared" si="7"/>
         <v>421</v>
-      </c>
-      <c r="R10">
-        <v>420</v>
       </c>
       <c r="S10">
         <v>420</v>
@@ -2227,10 +2373,13 @@
       <c r="Z10">
         <v>420</v>
       </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -2259,54 +2408,60 @@
       <c r="K11">
         <v>20</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="3"/>
+      <c r="L11">
+        <v>33</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="Q11">
-        <f>SUM(H11:K11)</f>
+      <c r="R11">
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="R11">
-        <f>Q11*1.05</f>
+      <c r="S11">
+        <f t="shared" ref="S11:AA11" si="10">R11*1.05</f>
         <v>82.95</v>
       </c>
-      <c r="S11">
-        <f>R11*1.05</f>
+      <c r="T11">
+        <f t="shared" si="10"/>
         <v>87.097500000000011</v>
       </c>
-      <c r="T11">
-        <f>S11*1.05</f>
+      <c r="U11">
+        <f t="shared" si="10"/>
         <v>91.452375000000018</v>
       </c>
-      <c r="U11">
-        <f>T11*1.05</f>
+      <c r="V11">
+        <f t="shared" si="10"/>
         <v>96.024993750000021</v>
       </c>
-      <c r="V11">
-        <f>U11*1.05</f>
+      <c r="W11">
+        <f t="shared" si="10"/>
         <v>100.82624343750003</v>
       </c>
-      <c r="W11">
-        <f>V11*1.05</f>
+      <c r="X11">
+        <f t="shared" si="10"/>
         <v>105.86755560937503</v>
       </c>
-      <c r="X11">
-        <f>W11*1.05</f>
+      <c r="Y11">
+        <f t="shared" si="10"/>
         <v>111.16093338984379</v>
       </c>
-      <c r="Y11">
-        <f>X11*1.05</f>
+      <c r="Z11">
+        <f t="shared" si="10"/>
         <v>116.71898005933599</v>
       </c>
-      <c r="Z11">
-        <f>Y11*1.05</f>
+      <c r="AA11">
+        <f t="shared" si="10"/>
         <v>122.55492906230279</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2335,16 +2490,19 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="3"/>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="Q12">
-        <f>SUM(H12:K12)</f>
+      <c r="R12">
+        <f t="shared" si="7"/>
         <v>41</v>
-      </c>
-      <c r="R12">
-        <v>25</v>
       </c>
       <c r="S12">
         <v>25</v>
@@ -2370,10 +2528,13 @@
       <c r="Z12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2402,16 +2563,19 @@
       <c r="K13">
         <v>3</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="3"/>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="Q13">
-        <f>SUM(H13:K13)</f>
+      <c r="R13">
+        <f t="shared" si="7"/>
         <v>9</v>
-      </c>
-      <c r="R13">
-        <v>10</v>
       </c>
       <c r="S13">
         <v>10</v>
@@ -2437,21 +2601,24 @@
       <c r="Z13">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:L15" si="4">C6-C8-C9-C10-C11-C12-C13</f>
+        <f t="shared" ref="C15:E15" si="11">C6-C8-C9-C10-C11-C12-C13</f>
         <v>-255</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>-204</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>-176</v>
       </c>
       <c r="F15">
@@ -2459,129 +2626,133 @@
         <v>-93</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:L15" si="5">G6-G8-G9-G10-G11-G12-G13</f>
+        <f t="shared" ref="G15:M15" si="12">G6-G8-G9-G10-G11-G12-G13</f>
         <v>-46</v>
       </c>
       <c r="H15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>-73</v>
       </c>
       <c r="I15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>-56</v>
       </c>
       <c r="J15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>-38</v>
       </c>
       <c r="K15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="L15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ref="P15:Z15" si="6">P6-P8-P9-P10-P11-P12-P13</f>
+        <f t="shared" si="12"/>
+        <v>-21</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ref="Q15:AA15" si="13">Q6-Q8-Q9-Q10-Q11-Q12-Q13</f>
         <v>-519</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="6"/>
+      <c r="R15">
+        <f t="shared" si="13"/>
         <v>-373</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="6"/>
+      <c r="S15">
+        <f t="shared" si="13"/>
         <v>454.46999999999974</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="6"/>
+      <c r="T15">
+        <f t="shared" si="13"/>
         <v>1058.9382999999993</v>
       </c>
-      <c r="T15">
-        <f t="shared" si="6"/>
+      <c r="U15">
+        <f t="shared" si="13"/>
         <v>1795.757206999999</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="6"/>
+      <c r="V15">
+        <f t="shared" si="13"/>
         <v>2691.7612866299996</v>
       </c>
-      <c r="V15">
-        <f t="shared" si="6"/>
+      <c r="W15">
+        <f t="shared" si="13"/>
         <v>3779.1642290166983</v>
       </c>
-      <c r="W15">
-        <f t="shared" si="6"/>
+      <c r="X15">
+        <f t="shared" si="13"/>
         <v>4747.8970550088216</v>
       </c>
-      <c r="X15">
-        <f t="shared" si="6"/>
+      <c r="Y15">
+        <f t="shared" si="13"/>
         <v>5470.0067090141565</v>
       </c>
-      <c r="Y15">
-        <f t="shared" si="6"/>
+      <c r="Z15">
+        <f t="shared" si="13"/>
         <v>6269.7341973352559</v>
       </c>
-      <c r="Z15">
-        <f t="shared" si="6"/>
+      <c r="AA15">
+        <f t="shared" si="13"/>
         <v>7155.0120667882993</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="R16">
-        <f>R15*0.8</f>
-        <v>363.57599999999979</v>
+        <v>43</v>
       </c>
       <c r="S16">
         <f>S15*0.8</f>
+        <v>363.57599999999979</v>
+      </c>
+      <c r="T16">
+        <f>T15*0.8</f>
         <v>847.1506399999995</v>
-      </c>
-      <c r="T16">
-        <f>T15*0.7</f>
-        <v>1257.0300448999992</v>
       </c>
       <c r="U16">
         <f>U15*0.7</f>
-        <v>1884.2329006409996</v>
+        <v>1257.0300448999992</v>
       </c>
       <c r="V16">
         <f>V15*0.7</f>
+        <v>1884.2329006409996</v>
+      </c>
+      <c r="W16">
+        <f>W15*0.7</f>
         <v>2645.4149603116884</v>
-      </c>
-      <c r="W16">
-        <f>W15*0.6</f>
-        <v>2848.7382330052928</v>
       </c>
       <c r="X16">
         <f>X15*0.6</f>
-        <v>3282.0040254084938</v>
+        <v>2848.7382330052928</v>
       </c>
       <c r="Y16">
         <f>Y15*0.6</f>
-        <v>3761.8405184011535</v>
+        <v>3282.0040254084938</v>
       </c>
       <c r="Z16">
         <f>Z15*0.6</f>
+        <v>3761.8405184011535</v>
+      </c>
+      <c r="AA16">
+        <f>AA15*0.6</f>
         <v>4293.0072400729796</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:E22" si="7">C6/C3</f>
+        <f t="shared" ref="C22:E22" si="14">C6/C3</f>
         <v>0.2450199203187251</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.29714285714285715</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.3421516754850088</v>
       </c>
       <c r="F22" s="3">
@@ -2589,47 +2760,51 @@
         <v>0.4</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" ref="G22:L22" si="8">G6/G3</f>
+        <f t="shared" ref="G22:M22" si="15">G6/G3</f>
         <v>0.43032159264931086</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.40275650842266464</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.42168674698795183</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.43715083798882681</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.46233766233766233</v>
       </c>
-      <c r="L22" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="L22" s="3">
+        <f t="shared" si="15"/>
+        <v>0.4294954721862872</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="15"/>
+        <v>0.42659974905897113</v>
+      </c>
+      <c r="S22" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ref="C23:E23" si="9">C15/C3</f>
+        <f t="shared" ref="C23:E23" si="16">C15/C3</f>
         <v>-0.50796812749003983</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-0.38857142857142857</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-0.31040564373897706</v>
       </c>
       <c r="F23" s="3">
@@ -2637,48 +2812,52 @@
         <v>-0.15121951219512195</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" ref="G23:L23" si="10">G15/G3</f>
+        <f t="shared" ref="G23:M23" si="17">G15/G3</f>
         <v>-7.0444104134762639E-2</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-0.11179173047473201</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-8.4337349397590355E-2</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-5.3072625698324022E-2</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="L23" s="3" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>44</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="L23" s="3">
+        <f t="shared" si="17"/>
+        <v>-2.7166882276843468E-2</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="17"/>
+        <v>2.509410288582183E-3</v>
+      </c>
+      <c r="R23" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="Q24" t="s">
-        <v>43</v>
-      </c>
-      <c r="R24" s="4">
-        <f>NPV(R23,R16:Z16)</f>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S24" s="4">
+        <f>NPV(S23,S16:AA16)</f>
         <v>11772.430378479428</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
@@ -2686,41 +2865,45 @@
         <v>4.5816733067729043E-2</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" ref="E25:L25" si="11">E3/D3-1</f>
+        <f t="shared" ref="E25:M25" si="18">E3/D3-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>8.4656084656084651E-2</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6.1788617886178843E-2</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1.6845329249617125E-2</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>7.8313253012048278E-2</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>7.5418994413407825E-2</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="P27" t="s">
-        <v>46</v>
+        <f t="shared" si="18"/>
+        <v>3.8961038961038419E-3</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="18"/>
+        <v>3.1047865459249646E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/GRAB.xlsx
+++ b/GRAB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Model\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA7F0BB-A234-44F9-8A18-2519BA5C364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F9F1C5-A016-45AB-8F0F-75DFF1DBAEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Price</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>As of Q1 2025</t>
+  </si>
+  <si>
+    <t>Acquires Everrise in Malaysia from Navis capital (private equity)</t>
+  </si>
+  <si>
+    <t>looks to acquire GoTo in indonesia for 7 Bil- seeking 2 Bil Loan</t>
   </si>
 </sst>
 </file>
@@ -228,12 +234,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="I1:L7"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,12 +642,12 @@
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -648,7 +655,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="3" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -659,7 +666,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -668,7 +675,7 @@
         <v>18531.18</v>
       </c>
     </row>
-    <row r="5" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -680,7 +687,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -691,13 +698,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="1">
         <f>K4-K5+K6</f>
         <v>12903.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45717</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709D2217-E332-49C9-A213-B5210B8C6629}">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
